--- a/data/trans_orig/P33B1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B1_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>49068</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37084</v>
+        <v>36734</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>64684</v>
+        <v>63696</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.07115130939240735</v>
+        <v>0.07115130939240734</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05377421091192914</v>
+        <v>0.05326674220703348</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09379490067328897</v>
+        <v>0.09236245615481875</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>150</v>
@@ -762,19 +762,19 @@
         <v>87885</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>75061</v>
+        <v>75847</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>102858</v>
+        <v>102366</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1200316796748045</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1025160535378703</v>
+        <v>0.1035908243310033</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1404812530376321</v>
+        <v>0.1398087250303819</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>203</v>
@@ -783,19 +783,19 @@
         <v>136953</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>119412</v>
+        <v>117748</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>157884</v>
+        <v>156502</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0963229943403614</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08398551882463606</v>
+        <v>0.0828152445744187</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.111044363268152</v>
+        <v>0.1100723100497883</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>51154</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>39380</v>
+        <v>39194</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>64306</v>
+        <v>68108</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07417602384207889</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05710262146339178</v>
+        <v>0.0568337183576243</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09324771366715939</v>
+        <v>0.09876117914464873</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>169</v>
@@ -833,19 +833,19 @@
         <v>89815</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>76176</v>
+        <v>77370</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>104438</v>
+        <v>104641</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1226671526320846</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1040392312596236</v>
+        <v>0.1056702825802565</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1426395170654531</v>
+        <v>0.1429158390578505</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>230</v>
@@ -854,19 +854,19 @@
         <v>140969</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>121670</v>
+        <v>122712</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>161065</v>
+        <v>160978</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09914726300456643</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08557408161857535</v>
+        <v>0.0863071257611155</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1132817554249935</v>
+        <v>0.1132207242858208</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>147800</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>126673</v>
+        <v>128503</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>170946</v>
+        <v>171948</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2143181085652238</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1836826204831423</v>
+        <v>0.186336368918537</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2478809268176137</v>
+        <v>0.249334761787749</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>378</v>
@@ -904,19 +904,19 @@
         <v>185304</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>167383</v>
+        <v>167364</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>203147</v>
+        <v>203055</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2530848487676642</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2286084328145809</v>
+        <v>0.2285816912921056</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2774532781467051</v>
+        <v>0.2773284371143723</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>565</v>
@@ -925,19 +925,19 @@
         <v>333104</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>305940</v>
+        <v>304647</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>361351</v>
+        <v>360543</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2342816269509761</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2151766048111861</v>
+        <v>0.2142668006543847</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2541487089648035</v>
+        <v>0.2535801565940126</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>441606</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>415641</v>
+        <v>414678</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>469065</v>
+        <v>466665</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.64035455820029</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6027033658070395</v>
+        <v>0.6013069007020045</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6801713343316628</v>
+        <v>0.6766904017060389</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>540</v>
@@ -975,19 +975,19 @@
         <v>369179</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>348094</v>
+        <v>345007</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>390491</v>
+        <v>389889</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5042163189254467</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4754194480158527</v>
+        <v>0.4712027848844693</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5333240107026954</v>
+        <v>0.532502554792798</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>968</v>
@@ -996,19 +996,19 @@
         <v>810785</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>774931</v>
+        <v>775214</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>843903</v>
+        <v>844734</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5702481157040961</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5450312441483893</v>
+        <v>0.5452298349114233</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5935408330247922</v>
+        <v>0.5941251116397379</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>63824</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>49274</v>
+        <v>50450</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>78922</v>
+        <v>79575</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06084744371423908</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0469763844920962</v>
+        <v>0.048097190378183</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07524186265037502</v>
+        <v>0.07586440484873511</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>181</v>
@@ -1121,19 +1121,19 @@
         <v>120607</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>103327</v>
+        <v>103466</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>140567</v>
+        <v>138742</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1126290109588082</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09649217898837124</v>
+        <v>0.09662112873768919</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1312679488350837</v>
+        <v>0.1295641417632647</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>256</v>
@@ -1142,19 +1142,19 @@
         <v>184431</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>161153</v>
+        <v>161446</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>210612</v>
+        <v>207520</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.08700597003405286</v>
+        <v>0.08700597003405287</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0760242841915988</v>
+        <v>0.0761626002321423</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09935668338176615</v>
+        <v>0.09789788506855995</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>55123</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>41980</v>
+        <v>41370</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>72530</v>
+        <v>71621</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05255242055426434</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04002205500501858</v>
+        <v>0.03944060060473185</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06914777625446657</v>
+        <v>0.06828066175206768</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>168</v>
@@ -1192,19 +1192,19 @@
         <v>97840</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>83216</v>
+        <v>83808</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>112947</v>
+        <v>112588</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09136742228966147</v>
+        <v>0.09136742228966148</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07771155773212747</v>
+        <v>0.07826390145955098</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1054755084385459</v>
+        <v>0.1051397725009563</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>227</v>
@@ -1213,19 +1213,19 @@
         <v>152963</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>133580</v>
+        <v>133617</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>176759</v>
+        <v>175352</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07216061896400815</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06301676906078951</v>
+        <v>0.06303396648704412</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08338643577764053</v>
+        <v>0.0827226318273344</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>185031</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>160292</v>
+        <v>158668</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>212407</v>
+        <v>212531</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1764021930324554</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1528162003219296</v>
+        <v>0.1512683838569965</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2025011342903415</v>
+        <v>0.2026197099059606</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>443</v>
@@ -1263,19 +1263,19 @@
         <v>270081</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>246910</v>
+        <v>245851</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>296026</v>
+        <v>292898</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.2522147513641427</v>
+        <v>0.2522147513641428</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2305764967477457</v>
+        <v>0.2295879375875982</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2764434764046192</v>
+        <v>0.2735225750753491</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>646</v>
@@ -1284,19 +1284,19 @@
         <v>455112</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>419019</v>
+        <v>420807</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>492786</v>
+        <v>490948</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2147004699680546</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1976733266990828</v>
+        <v>0.1985167011226202</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2324728717850276</v>
+        <v>0.231605845177768</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>744939</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>715223</v>
+        <v>713036</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>774303</v>
+        <v>777555</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7101979426990411</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6818677281605653</v>
+        <v>0.679782577342948</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7381926245791447</v>
+        <v>0.741293287044027</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>724</v>
@@ -1334,19 +1334,19 @@
         <v>582310</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>552581</v>
+        <v>552204</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>612799</v>
+        <v>611102</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5437888153873875</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5160266968694189</v>
+        <v>0.5156741731501807</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5722614466378256</v>
+        <v>0.5706761924007502</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1351</v>
@@ -1355,19 +1355,19 @@
         <v>1327248</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1286269</v>
+        <v>1285557</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1368513</v>
+        <v>1369673</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6261329410338845</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.606800604266861</v>
+        <v>0.6064646814608682</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6455998118196249</v>
+        <v>0.6461468805612596</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>44014</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>31553</v>
+        <v>33079</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>60300</v>
+        <v>60010</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05480723429913734</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03929045480611978</v>
+        <v>0.04118995748862909</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07508703883436725</v>
+        <v>0.0747250124133856</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>84</v>
@@ -1480,19 +1480,19 @@
         <v>63219</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>49838</v>
+        <v>51500</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>77131</v>
+        <v>77267</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.07783076984520364</v>
+        <v>0.07783076984520362</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06135756469517264</v>
+        <v>0.06340366191120443</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09495819133415777</v>
+        <v>0.09512644497263688</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>129</v>
@@ -1501,19 +1501,19 @@
         <v>107233</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>89847</v>
+        <v>89025</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>127649</v>
+        <v>128998</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.0663844645145418</v>
+        <v>0.06638446451454179</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05562117012540158</v>
+        <v>0.05511226157791312</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07902349836237203</v>
+        <v>0.07985845016839976</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>41046</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>29782</v>
+        <v>28124</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>56569</v>
+        <v>58689</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05111063332245232</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0370847678707747</v>
+        <v>0.03502054288300796</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07044045214058262</v>
+        <v>0.0730799354297384</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>100</v>
@@ -1551,19 +1551,19 @@
         <v>75568</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>60034</v>
+        <v>61558</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>93367</v>
+        <v>90616</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.09303416931874232</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07390936862400177</v>
+        <v>0.07578630065094161</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.114947478404711</v>
+        <v>0.1115602105282291</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>136</v>
@@ -1572,19 +1572,19 @@
         <v>116613</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>94943</v>
+        <v>97744</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>136712</v>
+        <v>141012</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.07219160182538807</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05877587732680353</v>
+        <v>0.06051012238792571</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08463413187578105</v>
+        <v>0.08729617815404873</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>174099</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>147058</v>
+        <v>149462</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>200350</v>
+        <v>200063</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2167909397878802</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1831186549296482</v>
+        <v>0.1861127460412597</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2494794647919895</v>
+        <v>0.2491221766498642</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>247</v>
@@ -1622,19 +1622,19 @@
         <v>181482</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>160378</v>
+        <v>160352</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>204002</v>
+        <v>204430</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2234283591920626</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1974472017568894</v>
+        <v>0.1974152278675915</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2511544205849043</v>
+        <v>0.2516803371207</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>402</v>
@@ -1643,19 +1643,19 @@
         <v>355581</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>322139</v>
+        <v>322323</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>391759</v>
+        <v>391119</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2201285215560957</v>
+        <v>0.2201285215560958</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1994260251284702</v>
+        <v>0.199539766677526</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.242525560040265</v>
+        <v>0.2421293705735971</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>543914</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>512551</v>
+        <v>513780</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>573104</v>
+        <v>571694</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6772911925905301</v>
+        <v>0.6772911925905302</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6382367574503371</v>
+        <v>0.6397679000721341</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7136386795059173</v>
+        <v>0.7118823608451855</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>616</v>
@@ -1693,19 +1693,19 @@
         <v>491991</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>464223</v>
+        <v>466981</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>518405</v>
+        <v>517100</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6057067016439914</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5715211234752823</v>
+        <v>0.5749169539300513</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.638226433254773</v>
+        <v>0.6366193834080741</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1056</v>
@@ -1714,19 +1714,19 @@
         <v>1035905</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>993687</v>
+        <v>991924</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1074647</v>
+        <v>1070963</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6412954121039744</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6151598761945077</v>
+        <v>0.6140679916014227</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6652792884192511</v>
+        <v>0.6629985515023452</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>78374</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>63519</v>
+        <v>62689</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>97664</v>
+        <v>94921</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07916029217347358</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06415708247397157</v>
+        <v>0.06331841274029971</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09864476739796899</v>
+        <v>0.09587334005217718</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>207</v>
@@ -1839,19 +1839,19 @@
         <v>140402</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>122683</v>
+        <v>122894</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>163520</v>
+        <v>160655</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1256114237778894</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1097588734808814</v>
+        <v>0.1099475407317345</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.146294056594257</v>
+        <v>0.143730565889942</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>298</v>
@@ -1860,19 +1860,19 @@
         <v>218776</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>193076</v>
+        <v>196167</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>244841</v>
+        <v>248637</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1037928247029296</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09160018543993816</v>
+        <v>0.09306652524159066</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1161589504148278</v>
+        <v>0.1179595380404383</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>66745</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>53240</v>
+        <v>54264</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>84391</v>
+        <v>84889</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06741487567489189</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05377459189604561</v>
+        <v>0.05480894194323521</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08523830812951833</v>
+        <v>0.08574152072647681</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>181</v>
@@ -1910,19 +1910,19 @@
         <v>118657</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>101234</v>
+        <v>102799</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>137418</v>
+        <v>136426</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1061568761993452</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0905694293733194</v>
+        <v>0.09196972151425756</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1229416017977496</v>
+        <v>0.1220541827738399</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>259</v>
@@ -1931,19 +1931,19 @@
         <v>185402</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>163279</v>
+        <v>162695</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>210347</v>
+        <v>209801</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.08795933939865787</v>
+        <v>0.08795933939865788</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0774637123134464</v>
+        <v>0.07718645347140986</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09979424061223126</v>
+        <v>0.09953494487059086</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>183800</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>158961</v>
+        <v>161197</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>209010</v>
+        <v>208992</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1856453205807141</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1605570002958306</v>
+        <v>0.1628147607673215</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2111076421647445</v>
+        <v>0.2110896015499253</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>391</v>
@@ -1981,19 +1981,19 @@
         <v>257571</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>233754</v>
+        <v>233239</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>284026</v>
+        <v>283091</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2304373999518458</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2091294285846701</v>
+        <v>0.2086684500186449</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2541052401292677</v>
+        <v>0.2532690397118666</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>604</v>
@@ -2002,19 +2002,19 @@
         <v>441372</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>408850</v>
+        <v>405254</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>479033</v>
+        <v>476282</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2093980756603447</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1939686888822171</v>
+        <v>0.1922629944100808</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.227265684120226</v>
+        <v>0.2259602104811538</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>661143</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>631321</v>
+        <v>629155</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>694292</v>
+        <v>689647</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6677795115709204</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6376577688363848</v>
+        <v>0.635470617190582</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7012608519233193</v>
+        <v>0.6965690217798057</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>781</v>
@@ -2052,19 +2052,19 @@
         <v>601120</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>569693</v>
+        <v>571933</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>630680</v>
+        <v>632336</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5377943000709197</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.509677995291795</v>
+        <v>0.5116826739478635</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5642405485345983</v>
+        <v>0.5657219753973143</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1405</v>
@@ -2073,19 +2073,19 @@
         <v>1262263</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1219592</v>
+        <v>1214993</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1305074</v>
+        <v>1304351</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5988497602380678</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5786058559206197</v>
+        <v>0.5764239175883593</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.619160321018401</v>
+        <v>0.6188173035549515</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>235280</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>206076</v>
+        <v>206708</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>264933</v>
+        <v>269267</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06661975665985197</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05835063849367236</v>
+        <v>0.0585295846100426</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07501614326059951</v>
+        <v>0.07624329992512313</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>622</v>
@@ -2198,19 +2198,19 @@
         <v>412114</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>381545</v>
+        <v>379880</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>445275</v>
+        <v>445774</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1103965151694881</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1022078459343996</v>
+        <v>0.1017618647393944</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1192796869766713</v>
+        <v>0.1194133805324536</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>886</v>
@@ -2219,19 +2219,19 @@
         <v>647393</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>602924</v>
+        <v>607366</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>688936</v>
+        <v>698439</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08911479661043448</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08299352508266973</v>
+        <v>0.08360502204196603</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09483320185284366</v>
+        <v>0.09614141112057285</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>214067</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>185794</v>
+        <v>187187</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>244532</v>
+        <v>244852</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06061349391225822</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05260780373627665</v>
+        <v>0.05300236653583103</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06923947943249251</v>
+        <v>0.06933018802809016</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>618</v>
@@ -2269,19 +2269,19 @@
         <v>381879</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>348811</v>
+        <v>351523</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>413074</v>
+        <v>413921</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1022973834238717</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09343902925177418</v>
+        <v>0.09416551089309272</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1106538191373908</v>
+        <v>0.1108806260792953</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>852</v>
@@ -2290,19 +2290,19 @@
         <v>595947</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>556599</v>
+        <v>555752</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>643829</v>
+        <v>638804</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.0820330962716474</v>
+        <v>0.08203309627164738</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07661683652636855</v>
+        <v>0.07650017413800349</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08862415950915215</v>
+        <v>0.0879325229708852</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>690730</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>641631</v>
+        <v>642736</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>737297</v>
+        <v>739588</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1955812375790776</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.181678796740108</v>
+        <v>0.1819914932050476</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2087667818162007</v>
+        <v>0.2094153471110277</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1459</v>
@@ -2340,19 +2340,19 @@
         <v>894439</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>849000</v>
+        <v>852482</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>935852</v>
+        <v>941280</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2396012532073174</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2274292461803543</v>
+        <v>0.2283619451321049</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2506949632769467</v>
+        <v>0.2521490281308564</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2217</v>
@@ -2361,19 +2361,19 @@
         <v>1585169</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1515184</v>
+        <v>1522296</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1649437</v>
+        <v>1653847</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2182012771593163</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2085677130105648</v>
+        <v>0.2095467200436471</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2270478325446646</v>
+        <v>0.2276549228742693</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>2391603</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2332784</v>
+        <v>2336232</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2449256</v>
+        <v>2452241</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6771855118488123</v>
+        <v>0.6771855118488121</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6605309462714204</v>
+        <v>0.661507386994751</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6935102402722757</v>
+        <v>0.6943552974259629</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2661</v>
@@ -2411,19 +2411,19 @@
         <v>2044599</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1990281</v>
+        <v>1988968</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2099101</v>
+        <v>2101330</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.5477048481993226</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5331543995559537</v>
+        <v>0.5328025702109188</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5623049352658647</v>
+        <v>0.5629018616536896</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4780</v>
@@ -2432,19 +2432,19 @@
         <v>4436201</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4353397</v>
+        <v>4357533</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4513043</v>
+        <v>4518430</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6106508299586018</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.599252630077587</v>
+        <v>0.5998220396572841</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6212282167596928</v>
+        <v>0.6219697978146068</v>
       </c>
     </row>
     <row r="28">
